--- a/biology/Microbiologie/Gélose_Columbia_au_sang_+_ANC/Gélose_Columbia_au_sang_+_ANC.xlsx
+++ b/biology/Microbiologie/Gélose_Columbia_au_sang_+_ANC/Gélose_Columbia_au_sang_+_ANC.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang_%2B_ANC</t>
+          <t>Gélose_Columbia_au_sang_+_ANC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Columbia au sang / ANC est un milieu de culture sélectif des bactéries à gram positif.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang_%2B_ANC</t>
+          <t>Gélose_Columbia_au_sang_+_ANC</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Mélange spécial de peptones	23,0 g
 Amidon	1,0 g
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang_%2B_ANC</t>
+          <t>Gélose_Columbia_au_sang_+_ANC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">42,5 g par litre.Stérilisation classique. Le sang est ajouté après retour de la gélose à 45 °C. Les antibiotiques peuvent être inclus dans la poudre ou ajoutés comme le sang.
 </t>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>G%C3%A9lose_Columbia_au_sang_%2B_ANC</t>
+          <t>Gélose_Columbia_au_sang_+_ANC</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +595,9 @@
           <t>Lecture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Colonies entourées d'un halo clair : béta-hémolytiques
 Colonies entourées d'un halo clair puis d'un second halo moins clair : double hémolytiques,
